--- a/biology/Botanique/Sladeniaceae/Sladeniaceae.xlsx
+++ b/biology/Botanique/Sladeniaceae/Sladeniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sladeniaceae (les Sladéniacées en français) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales qui comprend une ou deux espèces dans un ou deux genres.
 Ce sont des arbres, à feuilles alternes, des régions tropicales, originaires d'Asie du Sud-Est pour le genre Sladenia et d'Afrique de l'Est pour le genre Ficalhoa.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Sladenia. Ce genre a été décrit en 1873 par le  botaniste bavarois W. Kurz (1834-1878) qui le dédia à Edward Bosc Sladen (en)  (1831–1890), officier de l'armée britannique qui a exercé en Inde[1],[2]. Kurz, botaniste de l'expédition dirigée par Sladen, qualifie ce dernier de « chef énergique de l'expédition du Yunan ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Sladenia. Ce genre a été décrit en 1873 par le  botaniste bavarois W. Kurz (1834-1878) qui le dédia à Edward Bosc Sladen (en)  (1831–1890), officier de l'armée britannique qui a exercé en Inde,. Kurz, botaniste de l'expédition dirigée par Sladen, qualifie ce dernier de « chef énergique de l'expédition du Yunan ».
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La circonscription de la famille est variable, certains systèmes décrivant la famille comme étant constituée uniquement du genre Sladenia, lequel a été diversement considéré comme un membre des Actinidiaceae, Dilleniaceae, Linaceae, Ternstroemiaceae, Theaceae ou des Pentaphylacaceae.
-Les études morphologiques de l'embryon de Sladenia suggèrent qu'il possède des caractéristiques uniques qui méritent de placer le genre dans sa propre famille[3]. Celle-ci, cependant est mal connue et les premières études phylogénétiques ont soulevé des questions contradictoires quant à son emplacement taxonomique[4],[5].
-En classification classique de Cronquist (1981)[6] cette famille n'existe pas. Ces deux genres sont situés dans la famille des Théacées et dans l'ordre des Theales.
-Si la classification phylogénétique APG (1998)[7] accepte cette famille, la classification phylogénétique APG II (2003)[8] la considère comme optionnelle, ces plantes pouvant être incluses dans les Pentaphylacacées.
+Les études morphologiques de l'embryon de Sladenia suggèrent qu'il possède des caractéristiques uniques qui méritent de placer le genre dans sa propre famille. Celle-ci, cependant est mal connue et les premières études phylogénétiques ont soulevé des questions contradictoires quant à son emplacement taxonomique,.
+En classification classique de Cronquist (1981) cette famille n'existe pas. Ces deux genres sont situés dans la famille des Théacées et dans l'ordre des Theales.
+Si la classification phylogénétique APG (1998) accepte cette famille, la classification phylogénétique APG II (2003) la considère comme optionnelle, ces plantes pouvant être incluses dans les Pentaphylacacées.
 Le Angiosperm Phylogeny Website [7 mai 2007] accepte trois espèces en deux genres: Ficalhoa, Sladenia.
 </t>
         </is>
@@ -578,12 +594,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[9] et NCBI  (12 nov. 2015)[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Ficalhoa (en) Hiern
 Sladenia (en) Kurz
-Selon DELTA Angio           (12 nov. 2015)[11] :
+Selon DELTA Angio           (12 nov. 2015) :
 Sladenia</t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 Jun 2010)[12] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 Jun 2010) :
 genre Ficalhoa
 Ficalhoa laurifolia
 genre Sladenia
